--- a/excelSheet/customers.xlsx
+++ b/excelSheet/customers.xlsx
@@ -3,9 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" firstSheet="0" activeTab="0"/>
-  </bookViews>
   <sheets>
     <sheet sheetId="1" name="Submissions" state="visible" r:id="rId4"/>
   </sheets>
@@ -14,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -22,34 +19,69 @@
     <t>Email</t>
   </si>
   <si>
-    <t>aniket</t>
+    <t>Mobile No.</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Aniket Gangurde</t>
   </si>
   <si>
     <t>anigangurde32@gmail.com</t>
   </si>
   <si>
+    <t>+919867823815</t>
+  </si>
+  <si>
+    <t>Athlete</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>Here New</t>
+  </si>
+  <si>
     <t>demo</t>
   </si>
   <si>
-    <t>demo@gmail.com</t>
+    <t>some@gmail.com</t>
+  </si>
+  <si>
+    <t>+447856595245</t>
+  </si>
+  <si>
+    <t>Coach</t>
+  </si>
+  <si>
+    <t>Online Advertisement</t>
+  </si>
+  <si>
+    <t>somthing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <charset val="1"/>
-      <color rgb="FF000000"/>
-      <family val="2"/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -74,11 +106,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -96,42 +125,402 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="8.6875"/>
+  <dimension ref="A1:G3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/excelSheet/customers.xlsx
+++ b/excelSheet/customers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>somthing</t>
+  </si>
+  <si>
+    <t>ibrahim Shaikh</t>
+  </si>
+  <si>
+    <t>+917858652514</t>
+  </si>
+  <si>
+    <t>xand;akj</t>
   </si>
 </sst>
 </file>
@@ -447,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -517,6 +526,52 @@
       </c>
       <c r="G3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
